--- a/docs/baseCreateRenderer.xlsx
+++ b/docs/baseCreateRenderer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuguorui/study/Vue3-NB/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884B65CD-95DC-1B4A-A9A1-DA93C11CE33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACAD4FF-7C29-6A48-929C-7CBD709ED9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{B95FA279-2B69-8E45-B18E-EB49602EC4FB}"/>
+    <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{B95FA279-2B69-8E45-B18E-EB49602EC4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5521,15 +5521,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
+      <xdr:colOff>687040</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>18474</xdr:rowOff>
+      <xdr:rowOff>33962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>406401</xdr:colOff>
+      <xdr:colOff>483840</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>132774</xdr:rowOff>
+      <xdr:rowOff>148262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5544,8 +5544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="55017556" y="16788247"/>
-          <a:ext cx="2307936" cy="720436"/>
+          <a:off x="54042528" y="16745303"/>
+          <a:ext cx="2259361" cy="718325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6151,16 +6151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>809337</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>96898</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>33482</xdr:rowOff>
+      <xdr:rowOff>48970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>150091</xdr:colOff>
+      <xdr:colOff>258506</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>133927</xdr:rowOff>
+      <xdr:rowOff>149415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6175,8 +6175,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54380246" y="19631891"/>
-          <a:ext cx="3525981" cy="1312718"/>
+          <a:off x="53452386" y="19579092"/>
+          <a:ext cx="3445022" cy="1308494"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -6392,15 +6392,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>390237</xdr:colOff>
+      <xdr:colOff>545115</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>81972</xdr:rowOff>
+      <xdr:rowOff>50996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>542637</xdr:colOff>
+      <xdr:colOff>697515</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>81972</xdr:rowOff>
+      <xdr:rowOff>50996</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6415,8 +6415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54798192" y="24529472"/>
-          <a:ext cx="2663536" cy="808182"/>
+          <a:off x="53900603" y="24413313"/>
+          <a:ext cx="2614961" cy="805366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7123,15 +7123,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>89479</xdr:colOff>
+      <xdr:colOff>175014</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>133926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>169142</xdr:colOff>
+      <xdr:colOff>177237</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>18474</xdr:rowOff>
+      <xdr:rowOff>33962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7150,8 +7150,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="56171524" y="14277108"/>
-          <a:ext cx="79663" cy="2511139"/>
+          <a:off x="55172209" y="14227828"/>
+          <a:ext cx="2223" cy="2517475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7180,15 +7180,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>61192</xdr:colOff>
+      <xdr:colOff>175014</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>132774</xdr:rowOff>
+      <xdr:rowOff>148262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>89479</xdr:colOff>
+      <xdr:colOff>177702</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>33482</xdr:rowOff>
+      <xdr:rowOff>48970</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7206,9 +7206,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="56143237" y="17508683"/>
-          <a:ext cx="28287" cy="2123208"/>
+        <a:xfrm>
+          <a:off x="55172209" y="17463628"/>
+          <a:ext cx="2688" cy="2115464"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7237,15 +7237,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>47915</xdr:colOff>
+      <xdr:colOff>177702</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>133927</xdr:rowOff>
+      <xdr:rowOff>149415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>61192</xdr:colOff>
+      <xdr:colOff>210889</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>81972</xdr:rowOff>
+      <xdr:rowOff>50996</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7263,9 +7263,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="56129960" y="20944609"/>
-          <a:ext cx="13277" cy="3584863"/>
+        <a:xfrm>
+          <a:off x="55174897" y="20887586"/>
+          <a:ext cx="33187" cy="3525727"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7294,7 +7294,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>150091</xdr:colOff>
+      <xdr:colOff>258506</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>83705</xdr:rowOff>
     </xdr:from>
@@ -7302,7 +7302,7 @@
       <xdr:col>71</xdr:col>
       <xdr:colOff>212436</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>83705</xdr:rowOff>
+      <xdr:rowOff>99193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7320,9 +7320,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57906227" y="20288250"/>
-          <a:ext cx="1736436" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="56897408" y="20217851"/>
+          <a:ext cx="1595638" cy="15488"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7499,7 +7499,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 47416"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8213,16 +8213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>499917</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>557562</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>128154</xdr:rowOff>
+      <xdr:rowOff>128155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>107</xdr:col>
-      <xdr:colOff>432953</xdr:colOff>
+      <xdr:colOff>432954</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>144318</xdr:rowOff>
+      <xdr:rowOff>123904</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8237,8 +8237,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4685144" y="5583381"/>
-          <a:ext cx="85311673" cy="824346"/>
+          <a:off x="2199269" y="5564375"/>
+          <a:ext cx="86065026" cy="801114"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8813,7 +8813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0419688F-47EC-6C42-9EAF-62C5FFC2863C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO26" zoomScale="44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/docs/baseCreateRenderer.xlsx
+++ b/docs/baseCreateRenderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuguorui/study/Vue3-NB/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACAD4FF-7C29-6A48-929C-7CBD709ED9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F904CE2-6559-4646-BD1E-C6CBF0B21AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{B95FA279-2B69-8E45-B18E-EB49602EC4FB}"/>
   </bookViews>
@@ -109,15 +109,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>154878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>616725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>118637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -132,8 +132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352800" y="7112000"/>
-          <a:ext cx="1422400" cy="1384300"/>
+          <a:off x="3303240" y="7604512"/>
+          <a:ext cx="1417753" cy="1373149"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -436,14 +436,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>105627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>169127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -458,8 +458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705100" y="16065500"/>
-          <a:ext cx="2514600" cy="1485900"/>
+          <a:off x="2691161" y="15407578"/>
+          <a:ext cx="2500661" cy="1472890"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -538,13 +538,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>27259</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>357459</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -561,8 +561,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7658100" y="12687300"/>
-          <a:ext cx="1981200" cy="1181100"/>
+          <a:off x="7414942" y="12572071"/>
+          <a:ext cx="1971907" cy="1169949"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -730,15 +730,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:colOff>658077</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>696177</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>105627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -757,8 +757,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3962400" y="14033500"/>
-          <a:ext cx="38100" cy="2032000"/>
+          <a:off x="3941492" y="13905261"/>
+          <a:ext cx="38100" cy="1502317"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -793,9 +793,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>27259</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>69851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -814,8 +814,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6223000" y="13265150"/>
-          <a:ext cx="1435100" cy="12700"/>
+          <a:off x="6190476" y="13144345"/>
+          <a:ext cx="1224466" cy="12701"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -845,12 +845,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>118637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>728702</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -871,8 +871,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4013200" y="8496300"/>
-          <a:ext cx="50800" cy="1536700"/>
+          <a:off x="3994615" y="8977661"/>
+          <a:ext cx="17502" cy="964271"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -902,14 +902,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>153639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -924,8 +924,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11925300" y="7048500"/>
-          <a:ext cx="1638300" cy="1562100"/>
+          <a:off x="11860251" y="7264091"/>
+          <a:ext cx="1629008" cy="1547231"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -961,7 +961,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Common</a:t>
+            <a:t>Comment</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
             <a:solidFill>
@@ -1516,8 +1516,8 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>153639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -1542,8 +1542,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12744450" y="8610600"/>
-          <a:ext cx="0" cy="1384300"/>
+          <a:off x="12674755" y="8811322"/>
+          <a:ext cx="0" cy="1092510"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1553,14 +1553,14 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1610,14 +1610,14 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1663,18 +1663,19 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd w="lg" len="lg"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1686,14 +1687,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>213112</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>213112</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1709,8 +1710,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20866100" y="6896100"/>
-          <a:ext cx="1651000" cy="1562100"/>
+          <a:off x="20734453" y="9049524"/>
+          <a:ext cx="1641708" cy="1547232"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2282,13 +2283,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>213112</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>218223</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -2308,14 +2309,17 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="21678900" y="8458200"/>
-          <a:ext cx="12700" cy="4127500"/>
+        <a:xfrm>
+          <a:off x="21555307" y="10596756"/>
+          <a:ext cx="5111" cy="1875573"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2372,7 +2376,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2429,7 +2436,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2630,7 +2640,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2654,15 +2667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>451625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:colOff>400825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>185852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2677,8 +2690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33127373" y="7009245"/>
-          <a:ext cx="1623291" cy="1678709"/>
+          <a:off x="32464918" y="7573846"/>
+          <a:ext cx="1590907" cy="1672372"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3497,13 +3510,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>428915</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:colOff>426226</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>185852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
+      <xdr:colOff>428915</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>153555</xdr:rowOff>
     </xdr:to>
@@ -3523,14 +3536,17 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="33910733" y="8687954"/>
-          <a:ext cx="28286" cy="1769919"/>
+        <a:xfrm>
+          <a:off x="33260372" y="9246218"/>
+          <a:ext cx="2689" cy="1175752"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3589,7 +3605,10 @@
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3648,7 +3667,10 @@
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3705,7 +3727,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3762,7 +3787,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3819,7 +3847,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4121,7 +4152,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4570,14 +4604,14 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>353292</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>21936</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>148936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>519547</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>161636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4592,8 +4626,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43879656" y="16791709"/>
-          <a:ext cx="3514436" cy="820882"/>
+          <a:off x="43939692" y="16404936"/>
+          <a:ext cx="3519055" cy="825500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4694,7 +4728,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4751,7 +4788,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4808,7 +4848,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4838,9 +4881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>436419</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>21936</xdr:rowOff>
+      <xdr:colOff>436420</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>148936</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4859,13 +4902,16 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45610896" y="14168582"/>
-          <a:ext cx="25978" cy="2623127"/>
+          <a:off x="45673241" y="14249400"/>
+          <a:ext cx="25979" cy="2155536"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -6985,7 +7031,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7042,7 +7091,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7099,7 +7151,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7156,7 +7211,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7213,7 +7271,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7270,7 +7331,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7384,7 +7448,10 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7443,7 +7510,10 @@
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7502,7 +7572,10 @@
             <a:gd name="adj1" fmla="val 47416"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7526,15 +7599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>102</xdr:col>
-      <xdr:colOff>765464</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>98137</xdr:rowOff>
+      <xdr:colOff>792485</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>154693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>104</xdr:col>
-      <xdr:colOff>663864</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>173183</xdr:rowOff>
+      <xdr:colOff>690885</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27078</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7549,8 +7622,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="86144100" y="7775864"/>
-          <a:ext cx="1572491" cy="1489364"/>
+          <a:off x="84855676" y="8261076"/>
+          <a:ext cx="1546698" cy="1493662"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7618,15 +7691,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>93</xdr:col>
-      <xdr:colOff>96984</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>8082</xdr:rowOff>
+      <xdr:colOff>156054</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>95</xdr:col>
-      <xdr:colOff>249384</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>172027</xdr:rowOff>
+      <xdr:colOff>308454</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>29381</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7641,8 +7714,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="77942211" y="7685809"/>
-          <a:ext cx="1826491" cy="1780309"/>
+          <a:off x="76801905" y="8178562"/>
+          <a:ext cx="1800698" cy="1781138"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7878,15 +7951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>101</xdr:col>
-      <xdr:colOff>445654</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>24246</xdr:rowOff>
+      <xdr:colOff>416119</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>53780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>106</xdr:col>
-      <xdr:colOff>293254</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>124691</xdr:rowOff>
+      <xdr:colOff>263719</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>154225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7901,8 +7974,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="84987245" y="11338791"/>
-          <a:ext cx="4032827" cy="1110673"/>
+          <a:off x="83940770" y="11424710"/>
+          <a:ext cx="3982484" cy="1134166"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8046,9 +8119,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>94</xdr:col>
-      <xdr:colOff>173184</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>172027</xdr:rowOff>
+      <xdr:colOff>232254</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>29381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>94</xdr:col>
@@ -8072,13 +8145,16 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="78855457" y="9466118"/>
-          <a:ext cx="64075" cy="2088573"/>
+          <a:off x="77702254" y="9959700"/>
+          <a:ext cx="5005" cy="1629996"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -8102,15 +8178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>103</xdr:col>
-      <xdr:colOff>714664</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>173183</xdr:rowOff>
+      <xdr:colOff>741685</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
-      <xdr:colOff>787977</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>24246</xdr:rowOff>
+      <xdr:colOff>751994</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>53780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8128,13 +8204,16 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="86930346" y="9265228"/>
-          <a:ext cx="73313" cy="2073563"/>
+          <a:off x="85629025" y="9754738"/>
+          <a:ext cx="10309" cy="1445319"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -8195,14 +8274,14 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -8213,16 +8292,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>557562</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>128155</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>216828</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>107</xdr:col>
-      <xdr:colOff>432954</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123904</xdr:rowOff>
+      <xdr:colOff>479417</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8237,8 +8316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2199269" y="5564375"/>
-          <a:ext cx="86065026" cy="801114"/>
+          <a:off x="10887926" y="3458034"/>
+          <a:ext cx="77422832" cy="785625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8509,6 +8588,984 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>681462</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>789877</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A692A96-C793-AD43-B6B0-F04D7C199A9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2323169" y="5900853"/>
+          <a:ext cx="3391830" cy="774390"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>patch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>728702</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>735669</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>154878</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1330AB91-BEEF-C747-8D8C-2BB81E326D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4012117" y="6675243"/>
+          <a:ext cx="6967" cy="929269"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>46463</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>185854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>681463</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="圆角矩形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34342E7-4F70-C64F-A246-1544258CCACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11538414" y="5823415"/>
+          <a:ext cx="2276708" cy="665975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>Patch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>363963</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15798</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直线箭头连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B351827-03A6-8340-876A-A1332C1DA0F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12674755" y="6489390"/>
+          <a:ext cx="2013" cy="774701"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>709961</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>524108</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>46463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="圆角矩形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0DD9D7-5611-804D-9BEF-32457D9EB1A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20410449" y="7276791"/>
+          <a:ext cx="2276708" cy="823331"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>Patch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>206608</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>46463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>213112</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直线箭头连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE0E331-AACE-9B40-97D3-6C809BD1D6EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="2"/>
+          <a:endCxn id="57" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21548803" y="8100122"/>
+          <a:ext cx="6504" cy="949402"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>103459</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>738460</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>59474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="圆角矩形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2594D9-23CB-0246-9C88-A23402764CD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32116752" y="5880411"/>
+          <a:ext cx="2276708" cy="823331"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>Patch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>420960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>59474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>426226</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直线箭头连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB74B76-AB35-5049-8584-15AB78DC437D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="104" idx="2"/>
+          <a:endCxn id="80" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33255106" y="6703742"/>
+          <a:ext cx="5266" cy="870104"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>96555</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>721617</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="圆角矩形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272A641B-A16E-634D-8D7A-9B4E9193FACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43994381" y="5896609"/>
+          <a:ext cx="2281584" cy="827083"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>Patch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>406977</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>409086</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直线箭头连接符 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398EE60C-5091-8C40-9ADF-335837999CE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="2"/>
+          <a:endCxn id="112" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="45133064" y="6723692"/>
+          <a:ext cx="2109" cy="685076"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>718168</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>181608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>515806</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>198836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="圆角矩形 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BA2EAA-390D-B94E-B683-1F0FA4064A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="54500744" y="6319941"/>
+          <a:ext cx="2279910" cy="863895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>Patch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>200313</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>198836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>203275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直线箭头连接符 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841699F9-23E8-6B43-B9FD-E8BC1DCD105B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="2"/>
+          <a:endCxn id="146" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="55637737" y="7183836"/>
+          <a:ext cx="2962" cy="771367"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>758254</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>120128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>555892</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>137356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="圆角矩形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38D4DBB-428E-BC47-A3AD-C56096C6F579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76579956" y="6402575"/>
+          <a:ext cx="2270085" cy="827866"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>Patch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>413588</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>211227</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="圆角矩形 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230D08E5-381A-5446-8BC1-6F8F6B12FA8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84476779" y="6301730"/>
+          <a:ext cx="2270086" cy="827868"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>Patch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>232254</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>137356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>244999</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72179</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直线箭头连接符 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9593135-D8EE-E64A-94EB-BF9BB6BDE6C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="122" idx="2"/>
+          <a:endCxn id="185" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="77702254" y="7230441"/>
+          <a:ext cx="12745" cy="948121"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>724482</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>741685</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>154693</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直线箭头连接符 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3CAB860-CE3B-DE43-B721-3C5494DEE830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="124" idx="2"/>
+          <a:endCxn id="184" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85611822" y="7129598"/>
+          <a:ext cx="17203" cy="1131478"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8813,7 +9870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0419688F-47EC-6C42-9EAF-62C5FFC2863C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BL19" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/docs/baseCreateRenderer.xlsx
+++ b/docs/baseCreateRenderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuguorui/study/Vue3-NB/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F904CE2-6559-4646-BD1E-C6CBF0B21AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8825D910-09DD-574A-99EA-A46883EC4F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{B95FA279-2B69-8E45-B18E-EB49602EC4FB}"/>
   </bookViews>
@@ -2915,13 +2915,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>712355</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>78509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>585355</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>2310</xdr:rowOff>
@@ -2939,8 +2939,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37542355" y="11191009"/>
-          <a:ext cx="1547091" cy="529937"/>
+          <a:off x="37905212" y="11165811"/>
+          <a:ext cx="1526016" cy="528562"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3035,16 +3035,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>708892</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>178954</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>37844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>11547</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>2309</xdr:rowOff>
+      <xdr:rowOff>62786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3059,8 +3059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37538892" y="14726227"/>
-          <a:ext cx="1813791" cy="833582"/>
+          <a:off x="37901749" y="14753717"/>
+          <a:ext cx="1782179" cy="831291"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3122,16 +3122,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>539174</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>85437</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>475673</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>164810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>197428</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>85436</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3146,8 +3146,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31509856" y="17057255"/>
-          <a:ext cx="4680527" cy="2020454"/>
+          <a:off x="30193673" y="16881185"/>
+          <a:ext cx="6461702" cy="3534065"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3422,16 +3422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>21936</xdr:rowOff>
+      <xdr:rowOff>192277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>198582</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>162548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3446,8 +3446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37261800" y="17599891"/>
-          <a:ext cx="2409536" cy="984827"/>
+          <a:off x="38134925" y="18146902"/>
+          <a:ext cx="2374900" cy="1002146"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3572,13 +3572,13 @@
       <xdr:col>42</xdr:col>
       <xdr:colOff>755073</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>32905</xdr:rowOff>
+      <xdr:rowOff>33135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>708892</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>191654</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>50315</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3597,8 +3597,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35910982" y="13367905"/>
-          <a:ext cx="1627910" cy="1775113"/>
+          <a:off x="35468406" y="13337897"/>
+          <a:ext cx="2433343" cy="1831466"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3634,13 +3634,13 @@
       <xdr:col>42</xdr:col>
       <xdr:colOff>755073</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>141433</xdr:rowOff>
+      <xdr:rowOff>141203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>712355</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>32905</xdr:rowOff>
+      <xdr:rowOff>33135</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3659,8 +3659,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="35910982" y="11455978"/>
-          <a:ext cx="1631373" cy="1911927"/>
+          <a:off x="35468406" y="11430092"/>
+          <a:ext cx="2436806" cy="1907805"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3694,15 +3694,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>368302</xdr:colOff>
+      <xdr:colOff>404524</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>197428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>406401</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>85437</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>164810</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3721,8 +3721,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="33850120" y="14138564"/>
-          <a:ext cx="38099" cy="2918691"/>
+          <a:off x="33424524" y="14437303"/>
+          <a:ext cx="1877" cy="2443882"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3753,16 +3753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>197428</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>85437</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>74225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>110260</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3780,9 +3780,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="36190383" y="18067482"/>
-          <a:ext cx="1071417" cy="24823"/>
+        <a:xfrm flipV="1">
+          <a:off x="36655375" y="18647975"/>
+          <a:ext cx="1479550" cy="243"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3814,13 +3814,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>368302</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>85436</xdr:rowOff>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>387351</xdr:colOff>
+      <xdr:colOff>404524</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:to>
@@ -3840,9 +3840,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="33850120" y="19077709"/>
-          <a:ext cx="19049" cy="2777837"/>
+        <a:xfrm flipH="1">
+          <a:off x="33407350" y="20415250"/>
+          <a:ext cx="17174" cy="1907887"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4483,15 +4483,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>579582</xdr:colOff>
+      <xdr:colOff>781169</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>134460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>503382</xdr:colOff>
+      <xdr:colOff>704969</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
+      <xdr:rowOff>32860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4506,8 +4506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="49128218" y="13045210"/>
-          <a:ext cx="2434937" cy="706582"/>
+          <a:off x="48718629" y="13036047"/>
+          <a:ext cx="2403324" cy="704750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4821,9 +4821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>579582</xdr:colOff>
+      <xdr:colOff>781169</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:rowOff>83660</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4842,8 +4842,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47640009" y="13392151"/>
-          <a:ext cx="1488209" cy="6350"/>
+          <a:off x="47049908" y="13361913"/>
+          <a:ext cx="1668721" cy="26509"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6197,16 +6197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>96898</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>48970</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>17221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>258506</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>149415</xdr:rowOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>587374</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6221,8 +6221,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53452386" y="19579092"/>
-          <a:ext cx="3445022" cy="1308494"/>
+          <a:off x="51800125" y="19622846"/>
+          <a:ext cx="7397749" cy="2173530"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -6385,51 +6385,6 @@
             </a:rPr>
             <a:t>进行对比</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1·	`-0·	Zxcv bnm,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>a.</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="1">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6619,16 +6574,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>212436</xdr:colOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>21936</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>133927</xdr:rowOff>
+      <xdr:rowOff>118052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>744682</xdr:colOff>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>33481</xdr:rowOff>
+      <xdr:rowOff>17606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6643,8 +6598,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59642663" y="19732336"/>
-          <a:ext cx="3880428" cy="1111827"/>
+          <a:off x="61108936" y="20136427"/>
+          <a:ext cx="3834246" cy="1137804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6801,16 +6756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>61190</xdr:colOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>680315</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>188190</xdr:rowOff>
+      <xdr:rowOff>29440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>115453</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>28863</xdr:rowOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>734578</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>76488</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6825,8 +6780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60328463" y="24635690"/>
-          <a:ext cx="2565399" cy="1052946"/>
+          <a:off x="61767315" y="25000815"/>
+          <a:ext cx="2530763" cy="1078923"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6963,34 +6918,6 @@
             <a:t>instance.update()</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="1">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -7238,15 +7165,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>175014</xdr:colOff>
+      <xdr:colOff>172690</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>148262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>177702</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>48970</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>17221</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7265,8 +7192,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="55172209" y="17463628"/>
-          <a:ext cx="2688" cy="2115464"/>
+          <a:off x="55481190" y="17896512"/>
+          <a:ext cx="17810" cy="1726334"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7298,13 +7225,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>177702</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>149415</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>210889</xdr:colOff>
+      <xdr:colOff>208565</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>50996</xdr:rowOff>
     </xdr:to>
@@ -7325,8 +7252,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="55174897" y="20887586"/>
-          <a:ext cx="33187" cy="3525727"/>
+          <a:off x="55499000" y="21796376"/>
+          <a:ext cx="18065" cy="3225995"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7357,16 +7284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>258506</xdr:colOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>587374</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>83705</xdr:rowOff>
+      <xdr:rowOff>67829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>212436</xdr:colOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>21936</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>99193</xdr:rowOff>
+      <xdr:rowOff>72111</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7385,13 +7312,16 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="56897408" y="20217851"/>
-          <a:ext cx="1595638" cy="15488"/>
+          <a:off x="59197874" y="20705329"/>
+          <a:ext cx="1911062" cy="4282"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7414,16 +7344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>478559</xdr:colOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>288059</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>33481</xdr:rowOff>
+      <xdr:rowOff>17606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>506845</xdr:colOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>294697</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>188190</xdr:rowOff>
+      <xdr:rowOff>29440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7442,8 +7372,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="61582877" y="20844163"/>
-          <a:ext cx="28286" cy="3791527"/>
+          <a:off x="63026059" y="21274231"/>
+          <a:ext cx="6638" cy="3726584"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7783,15 +7713,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>91</xdr:col>
-      <xdr:colOff>434109</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>408709</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>97</xdr:col>
-      <xdr:colOff>40409</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>15009</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7806,8 +7736,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76605245" y="11554691"/>
-          <a:ext cx="4628573" cy="1212273"/>
+          <a:off x="76684909" y="11391900"/>
+          <a:ext cx="4635500" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7952,14 +7882,14 @@
     <xdr:from>
       <xdr:col>101</xdr:col>
       <xdr:colOff>416119</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>53780</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>134415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>106</xdr:col>
       <xdr:colOff>263719</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>154225</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>33272</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7974,8 +7904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83940770" y="11424710"/>
-          <a:ext cx="3982484" cy="1134166"/>
+          <a:off x="83893421" y="11423304"/>
+          <a:ext cx="3980139" cy="1108381"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8119,15 +8049,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>94</xdr:col>
-      <xdr:colOff>232254</xdr:colOff>
+      <xdr:colOff>211859</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>29381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>94</xdr:col>
-      <xdr:colOff>237259</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>232254</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8144,9 +8074,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="77702254" y="9959700"/>
-          <a:ext cx="5005" cy="1629996"/>
+        <a:xfrm flipH="1">
+          <a:off x="79002659" y="9986181"/>
+          <a:ext cx="20395" cy="1405719"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8178,15 +8108,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>103</xdr:col>
-      <xdr:colOff>741685</xdr:colOff>
+      <xdr:colOff>741686</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>27078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
-      <xdr:colOff>751994</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>53780</xdr:rowOff>
+      <xdr:colOff>753174</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>134415</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8204,8 +8134,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85629025" y="9754738"/>
-          <a:ext cx="10309" cy="1445319"/>
+          <a:off x="85872003" y="9703268"/>
+          <a:ext cx="11488" cy="1720036"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9568,6 +9498,2054 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>725714</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>20157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>443493</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>80634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62B8AAB-ED27-6548-8272-60A9FB51ECB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4031746" y="26629681"/>
+          <a:ext cx="4676826" cy="866826"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>render</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(vnode, container, isSVG)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40316</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>20159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241905</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>20159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="菱形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BAC42C-AA0E-2C4F-81EF-0C0F2E23220A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4172856" y="29048730"/>
+          <a:ext cx="4334128" cy="1209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vnode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>===</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11288</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>172558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91922</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>31447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="圆角矩形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46047920-E3AC-1941-97A3-753D504E73D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9929383" y="29201129"/>
+          <a:ext cx="3386666" cy="866826"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>卸载：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>unmount</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>506386</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>22577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>587021</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>83054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="圆角矩形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23388B82-D9E3-6A45-A8F4-01627B84DC1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638926" y="32679720"/>
+          <a:ext cx="3386666" cy="866826"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>patch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>174977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665239</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>20158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="圆角矩形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A144C378-4973-794F-B76B-35F407E30BC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4589739" y="34847993"/>
+          <a:ext cx="3514071" cy="853117"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>flushPostFlushCbs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145947</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>105632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>80634</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="圆角矩形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7625057-D6D2-5144-88FB-08C88F96558F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4278487" y="36996108"/>
+          <a:ext cx="4067226" cy="882145"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>container._vnode = vnode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>554364</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>80634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584603</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>20159</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直线箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AD9B4E-4D4E-3149-B3D9-B61A6BB1A224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6339920" y="27496507"/>
+          <a:ext cx="30239" cy="1552223"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241905</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>1209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11288</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>20159</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直线箭头连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3678F4B4-57F0-B145-937F-B73DD96D166E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="100" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8506984" y="29634542"/>
+          <a:ext cx="1422399" cy="18950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546703</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>20159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>554364</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>22577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直线箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A87FF60-6B06-4049-88D8-F418A818863C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6332259" y="30258254"/>
+          <a:ext cx="7661" cy="2421466"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546703</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>83054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561219</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>174977</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直线箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85921C1-642F-9D4A-A8CC-E36292C5CC9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="106" idx="2"/>
+          <a:endCxn id="107" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6332259" y="33546546"/>
+          <a:ext cx="14516" cy="1301447"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526544</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>20158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561219</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>105632</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直线箭头连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B117EEFF-5274-2748-B8F0-200CD93379FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="107" idx="2"/>
+          <a:endCxn id="110" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6312100" y="35701110"/>
+          <a:ext cx="34675" cy="1294998"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>31448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51605</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>161271</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="肘形连接符 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1E356C-6BE4-0A4F-8545-26AE75B68C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8205812" y="28191985"/>
+          <a:ext cx="1540934" cy="5292875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>403175</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>161269</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="文本框 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E79E935-6D50-0C46-84B6-D14393CF7A7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11147778" y="27980317"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>665239</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>100794</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="文本框 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388574FE-4348-874F-9251-AC23E5B01100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8930318" y="29129365"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>True</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>172558</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="文本框 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C767E7D4-ED89-E742-8B1B-7E96C587D65D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534781" y="30813828"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>False</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>616050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="文本框 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77134E6-6751-924A-95BA-3F23FAE0481B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6401606" y="12650813"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>True</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>486228</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22578</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="文本框 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F796F110-C6DF-DF46-BB3F-870D31BFA948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15363371" y="12722578"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>True</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>94343</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>54025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="文本框 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC830D77-156A-4E4B-B351-A29365E8F3B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24063073" y="12754025"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>True</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>60475</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="文本框 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6397515-9491-A749-8A43-73615FCDC699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35600316" y="12841111"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>True</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>353986</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="文本框 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72ADE32C-9793-E649-9738-558840D188FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47464938" y="12852400"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>True</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>163688</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>80635</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="783773" cy="423334"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="文本框 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2ED67-21B1-4B44-9850-AE97E33275C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59672259" y="12982222"/>
+          <a:ext cx="783773" cy="423334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>True</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>443944</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>160967</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="文本框 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D53C322-C72F-B74B-826A-8FC645C73BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36765944" y="18115592"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>True</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>275266</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>124933</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="783773" cy="423334"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="文本框 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DDFB7E-E898-F846-ACAD-B633B2EC63A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59711266" y="20143308"/>
+          <a:ext cx="783773" cy="423334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>True</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>566863</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>62894</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="文本框 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37F7611-29EA-F24C-8BF9-C5B434C853A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3046387" y="14375592"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>False</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336247</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>54023</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="文本框 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E1C1D1-54DB-DC46-9DCA-3CA24949C6DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11907358" y="14769896"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>False</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>45155</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>166106</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="文本框 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9327104-885A-2B43-9DA4-0EBC1BE41D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20707853" y="14881979"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>False</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>220737</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>30234</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="文本框 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74456119-FD73-4C46-8279-FFBC7FE74D2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32415237" y="21620234"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>False</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>329796</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>27413</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="文本框 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6463F40-21B6-C544-8FD4-5507E9F80D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32563606" y="15146461"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>False</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>341085</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38703</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="文本框 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B31E90A-7E80-C048-B5AA-4DC764D11B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44146006" y="14956163"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>False</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>90311</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>70150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="文本框 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CEE21F6-E99E-FB44-AED0-92FA005B8803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="54639835" y="15189198"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>False</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>101598</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="文本框 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED23B764-9A79-0A43-94DA-07FB72EC2A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="54651124" y="22276201"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>False</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9870,7 +11848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0419688F-47EC-6C42-9EAF-62C5FFC2863C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL19" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/docs/baseCreateRenderer.xlsx
+++ b/docs/baseCreateRenderer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuguorui/study/Vue3-NB/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8825D910-09DD-574A-99EA-A46883EC4F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EC3F1B-0D0B-4748-A69F-D643E579A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{B95FA279-2B69-8E45-B18E-EB49602EC4FB}"/>
+    <workbookView xWindow="16000" yWindow="2040" windowWidth="38400" windowHeight="19560" xr2:uid="{B95FA279-2B69-8E45-B18E-EB49602EC4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9731,16 +9740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>11288</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>172558</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>707973</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>38300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>91922</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>788607</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>31447</xdr:rowOff>
+      <xdr:rowOff>96760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9755,8 +9764,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9929383" y="29201129"/>
-          <a:ext cx="3386666" cy="866826"/>
+          <a:off x="17399402" y="28976157"/>
+          <a:ext cx="3418919" cy="856746"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10155,13 +10164,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>241905</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>1209</xdr:rowOff>
+      <xdr:rowOff>20159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>11288</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>707973</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>20159</xdr:rowOff>
+      <xdr:rowOff>67530</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10178,9 +10187,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8506984" y="29634542"/>
-          <a:ext cx="1422399" cy="18950"/>
+        <a:xfrm>
+          <a:off x="8587619" y="29357159"/>
+          <a:ext cx="8811783" cy="47371"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10374,61 +10383,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>31448</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>51605</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>161271</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="肘形连接符 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1E356C-6BE4-0A4F-8545-26AE75B68C2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="100" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8205812" y="28191985"/>
-          <a:ext cx="1540934" cy="5292875"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -10486,8 +10440,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>665239</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>309639</xdr:colOff>
       <xdr:row>144</xdr:row>
       <xdr:rowOff>100794</xdr:rowOff>
     </xdr:from>
@@ -10505,7 +10459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8930318" y="29129365"/>
+          <a:off x="12044439" y="29361594"/>
           <a:ext cx="866826" cy="468013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11509,6 +11463,2611 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="54651124" y="22276201"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>False</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762402</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>89100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>689429</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>199569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="圆角矩形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB43AD7-7583-144E-91FD-F1B45A814B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10777259" y="32419671"/>
+          <a:ext cx="4099884" cy="1108327"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ref</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>存在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的话 重置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ref</a:t>
+          </a:r>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ref != null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&amp;&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setRef</a:t>
+          </a:r>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>261659</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>41931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>399142</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="圆角矩形 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C1F409-92DB-7546-92CF-0E90E0DDF667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16953088" y="32372502"/>
+          <a:ext cx="4310340" cy="1246212"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Keep-Alive</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>组件包裹的</a:t>
+          </a:r>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>deactivate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>704343</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>121759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="圆角矩形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154099E8-73FC-634C-A018-E60A1EED6E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23237772" y="37042473"/>
+          <a:ext cx="4375657" cy="1565528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是组件类型</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>unmountComponent</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>780144</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="菱形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADEFCEF7-22E1-BF4F-AE49-039E9F3B1EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23282729" y="32348713"/>
+          <a:ext cx="4203701" cy="2521858"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shapeFlag &amp; ShapeFlags.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>COMPONENT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>366885</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>92729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>126998</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>181427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="圆角矩形 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515CE6AE-6335-9D41-A3CE-1FD686EE09D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30411456" y="30228015"/>
+          <a:ext cx="5602113" cy="1884841"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如果存在子组件，对子组件进行遍历卸载，会遍历递归调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mount</a:t>
+          </a:r>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>unmountChildren</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>385032</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>183446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="圆角矩形 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7230037-D7E3-9E40-B55F-6F059CE861DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30429603" y="35507589"/>
+          <a:ext cx="4310340" cy="1246212"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是组件类型</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>remove</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>308630</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>96761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>748291</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>89101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="肘形连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D9A793-3FF0-7641-A7C1-F3D36AABE430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="2"/>
+          <a:endCxn id="132" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14674648" y="27985457"/>
+          <a:ext cx="2586768" cy="6281661"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>747688</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>96759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>748292</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>41930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="肘形连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E03F7A-A8F8-7944-A62B-95A664F8ED99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="2"/>
+          <a:endCxn id="133" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="17838761" y="31102400"/>
+          <a:ext cx="2539599" cy="604"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>748291</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>96760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>347437</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="肘形连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A248B2-74A9-6341-887F-76A80757B8AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="20988816" y="27952949"/>
+          <a:ext cx="2515810" cy="6275718"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>347437</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>388458</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>121759</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直线箭头连接符 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9391880-24D8-2F4D-96D6-90F823C89CDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="135" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25384580" y="34870571"/>
+          <a:ext cx="41021" cy="2171902"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>192717</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>118130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="圆角矩形 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FF6792-4BE3-784E-AD8D-12EA9793D2D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17718717" y="40231987"/>
+          <a:ext cx="4088998" cy="1224441"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>执行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>beforeUnmount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>钩子</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>36688</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>34671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>61684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="圆角矩形 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96668E54-BB9F-8041-BBE4-4A07C1F2BE59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23404688" y="40348100"/>
+          <a:ext cx="4088998" cy="1224441"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>遍历卸载</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>effect</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>515657</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>23786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>431798</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="圆角矩形 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE2F6D6-C9C6-E74C-848F-B4D97D271E1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29725657" y="40337215"/>
+          <a:ext cx="4088998" cy="1224441"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>递归调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>unmount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>卸载子组件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>780144</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>37293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>366885</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="肘形连接符 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88FFDDB-EB10-EE46-8ECB-C55A6E10555A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="136" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="27486430" y="31170436"/>
+          <a:ext cx="2925026" cy="2439206"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>780144</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>385032</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>8266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="肘形连接符 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7CC818-C072-F942-B333-17750A377AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="137" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27486430" y="33609642"/>
+          <a:ext cx="2943173" cy="2521053"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>568073</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>90716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>388458</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>118131</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1419" name="肘形连接符 1418">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA85C7FD-1CB5-BE46-AA6C-3FF744DBA38C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="2"/>
+          <a:endCxn id="172" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="21782416" y="36588802"/>
+          <a:ext cx="1623986" cy="5662385"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>388458</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>412044</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>34671</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1423" name="直线箭头连接符 1422">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA20139A-03DD-6C41-8883-1FB33CE037E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="2"/>
+          <a:endCxn id="173" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25425601" y="38608001"/>
+          <a:ext cx="23586" cy="1740099"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>388457</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>56441</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>23786</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1426" name="肘形连接符 1425">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8807B3A-9415-7744-9145-70DE0B6E16DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="2"/>
+          <a:endCxn id="174" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="27733271" y="36300330"/>
+          <a:ext cx="1729214" cy="6344555"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1431" name="椭圆 1430">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B226BBD0-23D9-074B-AC70-E39D8E892C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36539714" y="32457571"/>
+          <a:ext cx="1959429" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>Fragment</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>787399</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>243113</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="椭圆 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1291A398-639F-CD44-9C25-70C51825FDE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36673970" y="35168114"/>
+          <a:ext cx="1959429" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>Static</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>667656</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>123371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>123370</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="椭圆 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC374C3-34D2-B249-B66B-07F491D60DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36554227" y="38041942"/>
+          <a:ext cx="1959429" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>Element</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>8266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1434" name="肘形连接符 1433">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA284B93-ECE9-554F-9C12-4B3DADD41AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="3"/>
+          <a:endCxn id="1431" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="34739943" y="33410071"/>
+          <a:ext cx="1799771" cy="2720624"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>197757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>787399</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>8266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1437" name="直线箭头连接符 1436">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2FA472-B125-3047-9D00-CC6E03AE8778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="3"/>
+          <a:endCxn id="216" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="34739943" y="36120614"/>
+          <a:ext cx="1934027" cy="10081"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>8266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>667656</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>78013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1439" name="肘形连接符 1438">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00F8E3C-4BDD-0C48-91D0-215FC5569D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="3"/>
+          <a:endCxn id="217" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34739943" y="36130695"/>
+          <a:ext cx="1814284" cy="2863747"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1440" name="圆角矩形 1439">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6BBDD5-FFC4-AC47-B69C-EDC8131E1C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39859857" y="32874857"/>
+          <a:ext cx="2957286" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>removeFragment</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>79829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="圆角矩形 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D783025-0EB3-4342-9FB4-5AAE85900EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40084829" y="35603543"/>
+          <a:ext cx="2957286" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>removeStaticNode</a:t>
+          </a:r>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>159657</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>177798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>613229</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>195941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="圆角矩形 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242FEFD5-A6E8-264A-B347-92A8517AE1FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40219086" y="38495512"/>
+          <a:ext cx="2957286" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="2400" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>performLeave</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1442" name="直线箭头连接符 1441">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B11B9C-CA6C-C945-9CCB-62B8CE6BED6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1431" idx="6"/>
+          <a:endCxn id="1440" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="38499143" y="33382857"/>
+          <a:ext cx="1360714" cy="27214"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>243113</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>188686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>197757</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1448" name="直线箭头连接符 1447">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD223453-8524-7942-92B1-41FC87CD4511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="216" idx="6"/>
+          <a:endCxn id="226" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="38633399" y="36111543"/>
+          <a:ext cx="1451430" cy="9071"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>123370</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>78013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>159657</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>87083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1451" name="直线箭头连接符 1450">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81A2373-C74B-DB49-99AF-5A55E5B180CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="217" idx="6"/>
+          <a:endCxn id="227" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38513656" y="38994442"/>
+          <a:ext cx="1705430" cy="9070"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>233440</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>60879</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="241" name="文本框 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C806D5-9D30-2348-A629-931F93582FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24436011" y="35584593"/>
+          <a:ext cx="866826" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>True</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>91924</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>116114</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866826" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="242" name="文本框 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812FCFD5-47BC-BF4C-8554-1EFF1EEF780C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27632781" y="33045400"/>
           <a:ext cx="866826" cy="468013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11848,7 +14407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0419688F-47EC-6C42-9EAF-62C5FFC2863C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E124" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11857,7 +14416,13 @@
     <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
   </mergeCells>
